--- a/admin/users.xlsx
+++ b/admin/users.xlsx
@@ -1,37 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\attendance system\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B183F-7885-4DF9-879C-182673F3D0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>s.no</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>address line 1</t>
+  </si>
+  <si>
+    <t>address line 2</t>
+  </si>
+  <si>
+    <t>city/village</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin code</t>
+  </si>
+  <si>
+    <t>S/o</t>
+  </si>
+  <si>
+    <t>father's name</t>
+  </si>
+  <si>
+    <t>mother's name</t>
+  </si>
+  <si>
+    <t>nominee's name</t>
+  </si>
+  <si>
+    <t>relationship to nominee</t>
+  </si>
+  <si>
+    <t>educational qualifications</t>
+  </si>
+  <si>
+    <t>previous work experience</t>
+  </si>
+  <si>
+    <t>date of joining</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>alternate mobile number</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>aadhar number</t>
+  </si>
+  <si>
+    <t>pan number</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +138,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,157 +462,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>s.no</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>address line 1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>address line 2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>city/village</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pin code</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>S/o</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>father's name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mother's name</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>nominee's name</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>relationship to nominee</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>educational qualifications</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>previous work experience</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>date of joining</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ESI</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>mobile number</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>alternate mobile number</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>email id</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>aadhar number</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>pan number</t>
-        </is>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/admin/users.xlsx
+++ b/admin/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\attendance system\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BIG WORLD\attendance system\contactless_attendance\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B183F-7885-4DF9-879C-182673F3D0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1394DD-4D6C-4FE5-80B2-DABD612A4929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>s.no</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>pan number</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>C1001</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +566,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/admin/users.xlsx
+++ b/admin/users.xlsx
@@ -1,141 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BIG WORLD\attendance system\contactless_attendance\admin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1394DD-4D6C-4FE5-80B2-DABD612A4929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>s.no</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>address line 1</t>
-  </si>
-  <si>
-    <t>address line 2</t>
-  </si>
-  <si>
-    <t>city/village</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>pin code</t>
-  </si>
-  <si>
-    <t>S/o</t>
-  </si>
-  <si>
-    <t>father's name</t>
-  </si>
-  <si>
-    <t>mother's name</t>
-  </si>
-  <si>
-    <t>nominee's name</t>
-  </si>
-  <si>
-    <t>relationship to nominee</t>
-  </si>
-  <si>
-    <t>educational qualifications</t>
-  </si>
-  <si>
-    <t>previous work experience</t>
-  </si>
-  <si>
-    <t>date of joining</t>
-  </si>
-  <si>
-    <t>ESI</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>mobile number</t>
-  </si>
-  <si>
-    <t>alternate mobile number</t>
-  </si>
-  <si>
-    <t>email id</t>
-  </si>
-  <si>
-    <t>aadhar number</t>
-  </si>
-  <si>
-    <t>pan number</t>
-  </si>
-  <si>
-    <t>aditya</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>C1001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,43 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,116 +421,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>s.no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>address line 1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>address line 2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>city/village</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pin code</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>S/o</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>father's name</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mother's name</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>nominee's name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>relationship to nominee</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>educational qualifications</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>previous work experience</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>date of joining</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ESI</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>mobile number</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>alternate mobile number</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>email id</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>aadhar number</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>pan number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>adi</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>adi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/admin/users.xlsx
+++ b/admin/users.xlsx
@@ -1,37 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BIG WORLD\attendance system\contactless_attendance\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF02C0-1E79-45FD-84E5-1335BC88AA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>s.no</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>address line 1</t>
+  </si>
+  <si>
+    <t>address line 2</t>
+  </si>
+  <si>
+    <t>city/village</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin code</t>
+  </si>
+  <si>
+    <t>S/o</t>
+  </si>
+  <si>
+    <t>father's name</t>
+  </si>
+  <si>
+    <t>mother's name</t>
+  </si>
+  <si>
+    <t>nominee's name</t>
+  </si>
+  <si>
+    <t>relationship to nominee</t>
+  </si>
+  <si>
+    <t>educational qualifications</t>
+  </si>
+  <si>
+    <t>previous work experience</t>
+  </si>
+  <si>
+    <t>date of joining</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>alternate mobile number</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>aadhar number</t>
+  </si>
+  <si>
+    <t>pan number</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>C1001</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +156,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,241 +480,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>s.no</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>address line 1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>address line 2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>city/village</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pin code</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>S/o</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>father's name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mother's name</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>nominee's name</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>relationship to nominee</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>educational qualifications</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>previous work experience</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>date of joining</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ESI</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>mobile number</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>alternate mobile number</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>email id</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>aadhar number</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>pan number</t>
-        </is>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>cat</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1001</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>adi</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cat</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/admin/users.xlsx
+++ b/admin/users.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BIG WORLD\attendance system\contactless_attendance\admin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF02C0-1E79-45FD-84E5-1335BC88AA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <t>s.no</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>address line 1</t>
-  </si>
-  <si>
-    <t>address line 2</t>
-  </si>
-  <si>
-    <t>city/village</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>pin code</t>
-  </si>
-  <si>
-    <t>S/o</t>
-  </si>
-  <si>
-    <t>father's name</t>
-  </si>
-  <si>
-    <t>mother's name</t>
-  </si>
-  <si>
-    <t>nominee's name</t>
-  </si>
-  <si>
-    <t>relationship to nominee</t>
-  </si>
-  <si>
-    <t>educational qualifications</t>
-  </si>
-  <si>
-    <t>previous work experience</t>
-  </si>
-  <si>
-    <t>date of joining</t>
-  </si>
-  <si>
-    <t>ESI</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>mobile number</t>
-  </si>
-  <si>
-    <t>alternate mobile number</t>
-  </si>
-  <si>
-    <t>email id</t>
-  </si>
-  <si>
-    <t>aadhar number</t>
-  </si>
-  <si>
-    <t>pan number</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>adi</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>C1001</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,43 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,141 +421,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>s.no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>address line 1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>address line 2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>city/village</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pin code</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>S/o</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>father's name</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mother's name</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>nominee's name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>relationship to nominee</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>educational qualifications</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>previous work experience</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>date of joining</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ESI</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>mobile number</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>alternate mobile number</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>email id</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>aadhar number</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>pan number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aditya</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>adi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C1001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Aditya</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>